--- a/teste.xlsx
+++ b/teste.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BA4"/>
+  <dimension ref="A1:BA6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -822,49 +822,49 @@
         <v>605</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.428571428571428</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="AO2" t="n">
         <v>1</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.476190476190476</v>
+        <v>1.47619047619048</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.4761904761904762</v>
+        <v>0.476190476190476</v>
       </c>
       <c r="AR2" t="n">
-        <v>1.952380952380952</v>
+        <v>1.95238095238095</v>
       </c>
       <c r="AS2" t="n">
-        <v>3.809523809523809</v>
+        <v>3.80952380952381</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.904761904761905</v>
+        <v>1.90476190476191</v>
       </c>
       <c r="AU2" t="n">
-        <v>5.714285714285714</v>
+        <v>5.71428571428571</v>
       </c>
       <c r="AV2" t="n">
-        <v>6.380952380952381</v>
+        <v>6.38095238095238</v>
       </c>
       <c r="AW2" t="n">
         <v>2</v>
       </c>
       <c r="AX2" t="n">
-        <v>1.285714285714286</v>
+        <v>1.28571428571429</v>
       </c>
       <c r="AY2" t="n">
-        <v>8.380952380952381</v>
+        <v>8.38095238095238</v>
       </c>
       <c r="AZ2" t="n">
-        <v>124.9047619047619</v>
+        <v>124.904761904762</v>
       </c>
       <c r="BA2" t="n">
-        <v>1.142857142857143</v>
+        <v>1.14285714285714</v>
       </c>
     </row>
     <row r="3">
@@ -989,13 +989,13 @@
         <v>583</v>
       </c>
       <c r="AM3" t="n">
-        <v>1.066666666666667</v>
+        <v>1.06666666666667</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="AO3" t="n">
-        <v>1.733333333333333</v>
+        <v>1.73333333333333</v>
       </c>
       <c r="AP3" t="n">
         <v>1.6</v>
@@ -1007,13 +1007,13 @@
         <v>2.2</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.933333333333333</v>
+        <v>2.93333333333333</v>
       </c>
       <c r="AT3" t="n">
         <v>1.8</v>
       </c>
       <c r="AU3" t="n">
-        <v>4.733333333333333</v>
+        <v>4.73333333333333</v>
       </c>
       <c r="AV3" t="n">
         <v>9.6</v>
@@ -1022,7 +1022,7 @@
         <v>3</v>
       </c>
       <c r="AX3" t="n">
-        <v>1.866666666666667</v>
+        <v>1.86666666666667</v>
       </c>
       <c r="AY3" t="n">
         <v>12.6</v>
@@ -1031,7 +1031,7 @@
         <v>164.2</v>
       </c>
       <c r="BA3" t="n">
-        <v>1.733333333333333</v>
+        <v>1.73333333333333</v>
       </c>
     </row>
     <row r="4">
@@ -1156,50 +1156,184 @@
         <v>367</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.6470588235294118</v>
+        <v>0.647058823529412</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.6470588235294118</v>
+        <v>0.647058823529412</v>
       </c>
       <c r="AO4" t="n">
-        <v>1.294117647058824</v>
+        <v>1.29411764705882</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.529411764705882</v>
+        <v>1.52941176470588</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.2352941176470588</v>
+        <v>0.235294117647059</v>
       </c>
       <c r="AR4" t="n">
-        <v>1.764705882352941</v>
+        <v>1.76470588235294</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.705882352941176</v>
+        <v>1.70588235294118</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.4117647058823529</v>
+        <v>0.411764705882353</v>
       </c>
       <c r="AU4" t="n">
-        <v>2.117647058823529</v>
+        <v>2.11764705882353</v>
       </c>
       <c r="AV4" t="n">
-        <v>4.823529411764706</v>
+        <v>4.82352941176471</v>
       </c>
       <c r="AW4" t="n">
-        <v>1.882352941176471</v>
+        <v>1.88235294117647</v>
       </c>
       <c r="AX4" t="n">
         <v>1</v>
       </c>
       <c r="AY4" t="n">
-        <v>6.705882352941177</v>
+        <v>6.70588235294118</v>
       </c>
       <c r="AZ4" t="n">
-        <v>96.94117647058823</v>
+        <v>96.9411764705882</v>
       </c>
       <c r="BA4" t="n">
-        <v>1.294117647058824</v>
-      </c>
+        <v>1.29411764705882</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Alexandre Plastino de Carvalho</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>4985266524417261</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>axlvTZoAAAAJ</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="inlineStr"/>
+      <c r="AP5" t="inlineStr"/>
+      <c r="AQ5" t="inlineStr"/>
+      <c r="AR5" t="inlineStr"/>
+      <c r="AS5" t="inlineStr"/>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AU5" t="inlineStr"/>
+      <c r="AV5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr"/>
+      <c r="AX5" t="inlineStr"/>
+      <c r="AY5" t="inlineStr"/>
+      <c r="AZ5" t="inlineStr"/>
+      <c r="BA5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Esteban Walter Gonzalez Clua</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>4791589931798048</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>p1-e5NMAAAAJ</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr"/>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="inlineStr"/>
+      <c r="AP6" t="inlineStr"/>
+      <c r="AQ6" t="inlineStr"/>
+      <c r="AR6" t="inlineStr"/>
+      <c r="AS6" t="inlineStr"/>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AU6" t="inlineStr"/>
+      <c r="AV6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr"/>
+      <c r="AX6" t="inlineStr"/>
+      <c r="AY6" t="inlineStr"/>
+      <c r="AZ6" t="inlineStr"/>
+      <c r="BA6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
